--- a/Orange/22-01-01_22-01-07/1203428/1_flow.xlsx
+++ b/Orange/22-01-01_22-01-07/1203428/1_flow.xlsx
@@ -28529,7 +28529,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>03/17/2022 01:54</t>
+          <t>04/11/2022 06:25</t>
         </is>
       </c>
     </row>
